--- a/Resultado_Regressoes.xlsx
+++ b/Resultado_Regressoes.xlsx
@@ -1,24 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ITAUSA_ESG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D77FABA-DA05-40F9-BD22-EFDC59805E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pmdl_01" sheetId="1" r:id="rId1"/>
     <sheet name="pmdl_02" sheetId="2" r:id="rId2"/>
     <sheet name="pmdl_05" sheetId="3" r:id="rId3"/>
     <sheet name="pmdl_06" sheetId="4" r:id="rId4"/>
+    <sheet name="pmdl_ab" sheetId="5" r:id="rId5"/>
+    <sheet name="pmdl_ab2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>std.error</t>
+  </si>
+  <si>
+    <t>statistic</t>
+  </si>
+  <si>
+    <t>p.value</t>
+  </si>
+  <si>
+    <t>Gini</t>
+  </si>
+  <si>
+    <t>Idh</t>
+  </si>
+  <si>
+    <t>dlnCO2</t>
+  </si>
+  <si>
+    <t>ctfp</t>
+  </si>
+  <si>
+    <t>GDP_1</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Forest_perc</t>
+  </si>
+  <si>
+    <t>Natural_resources_rents</t>
+  </si>
+  <si>
+    <t>RuleOfLaw</t>
+  </si>
+  <si>
+    <t>dlnCO2:ctfp</t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>pca1_nature</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,24 +119,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -110,7 +183,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -144,6 +217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -178,9 +252,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -353,203 +428,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>term</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>estimate</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>std.error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>statistic</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>p.value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Gini</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.002348993049316569</v>
+        <v>-2.3489930493165688E-3</v>
       </c>
       <c r="C2">
-        <v>0.00111708614738957</v>
+        <v>1.1170861473895699E-3</v>
       </c>
       <c r="D2">
-        <v>-2.102785944312123</v>
+        <v>-2.1027859443121231</v>
       </c>
       <c r="E2">
-        <v>0.03604936599892519</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Idh</t>
-        </is>
+        <v>3.6049365998925192E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1.323137049467306</v>
       </c>
       <c r="C3">
-        <v>0.2691765853699832</v>
+        <v>0.26917658536998318</v>
       </c>
       <c r="D3">
         <v>4.915498306246266</v>
       </c>
       <c r="E3">
-        <v>1.250208854624931e-06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>dlnCO2</t>
-        </is>
+        <v>1.250208854624931E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.06674879019439579</v>
+        <v>6.6748790194395793E-2</v>
       </c>
       <c r="C4">
-        <v>0.03444821286161237</v>
+        <v>3.4448212861612371E-2</v>
       </c>
       <c r="D4">
         <v>1.937656111872724</v>
       </c>
       <c r="E4">
-        <v>0.05330181930989982</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ctfp</t>
-        </is>
+        <v>5.3301819309899821E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0.2526052564949422</v>
       </c>
       <c r="C5">
-        <v>0.0376712426788201</v>
+        <v>3.7671242678820098E-2</v>
       </c>
       <c r="D5">
-        <v>6.705519609443742</v>
+        <v>6.7055196094437424</v>
       </c>
       <c r="E5">
-        <v>6.147255952428012e-11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GDP_1</t>
-        </is>
+        <v>6.1472559524280119E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.3178409072778491</v>
+        <v>-0.31784090727784908</v>
       </c>
       <c r="C6">
-        <v>0.02653543596754341</v>
+        <v>2.653543596754341E-2</v>
       </c>
       <c r="D6">
-        <v>-11.97797947117257</v>
+        <v>-11.977979471172571</v>
       </c>
       <c r="E6">
-        <v>7.95898682351951e-29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Education</t>
-        </is>
+        <v>7.9589868235195096E-29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02482349567225125</v>
+        <v>-2.4823495672251249E-2</v>
       </c>
       <c r="C7">
-        <v>0.009107329877557389</v>
+        <v>9.1073298775573887E-3</v>
       </c>
       <c r="D7">
         <v>-2.725661198835259</v>
       </c>
       <c r="E7">
-        <v>0.006672173617283862</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Forest_perc</t>
-        </is>
+        <v>6.672173617283862E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.002468532528293017</v>
+        <v>2.4685325282930168E-3</v>
       </c>
       <c r="C8">
-        <v>0.003033395494760557</v>
+        <v>3.0333954947605571E-3</v>
       </c>
       <c r="D8">
-        <v>0.8137852556835397</v>
+        <v>0.81378525568353965</v>
       </c>
       <c r="E8">
-        <v>0.4162061588044644</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Natural_resources_rents</t>
-        </is>
+        <v>0.41620615880446438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.001948377531131854</v>
+        <v>-1.948377531131854E-3</v>
       </c>
       <c r="C9">
-        <v>0.0005086113229608161</v>
+        <v>5.0861132296081614E-4</v>
       </c>
       <c r="D9">
-        <v>-3.830778913433585</v>
+        <v>-3.8307789134335848</v>
       </c>
       <c r="E9">
-        <v>0.0001462222113014532</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>RuleOfLaw</t>
-        </is>
+        <v>1.4622221130145319E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0121286739054521</v>
+        <v>1.21286739054521E-2</v>
       </c>
       <c r="C10">
-        <v>0.01002482191624988</v>
+        <v>1.002482191624988E-2</v>
       </c>
       <c r="D10">
         <v>1.20986427557301</v>
@@ -558,23 +605,21 @@
         <v>0.2269776380544091</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>dlnCO2:ctfp</t>
-        </is>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08408295452640208</v>
+        <v>-8.4082954526402076E-2</v>
       </c>
       <c r="C11">
-        <v>0.05814394425263548</v>
+        <v>5.8143944252635478E-2</v>
       </c>
       <c r="D11">
         <v>-1.446117142673734</v>
       </c>
       <c r="E11">
-        <v>0.148853052915056</v>
+        <v>0.14885305291505599</v>
       </c>
     </row>
   </sheetData>
@@ -583,171 +628,147 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>term</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>estimate</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>std.error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>statistic</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>p.value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Gini</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.002590745508586754</v>
+        <v>-2.5907455085867541E-3</v>
       </c>
       <c r="C2">
-        <v>0.001120612004489353</v>
+        <v>1.1206120044893529E-3</v>
       </c>
       <c r="D2">
-        <v>-2.311902333910227</v>
+        <v>-2.3119023339102269</v>
       </c>
       <c r="E2">
-        <v>0.02123882798379725</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Idh</t>
-        </is>
+        <v>2.123882798379725E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>1.08463950494868</v>
+        <v>1.0846395049486801</v>
       </c>
       <c r="C3">
-        <v>0.2544692217415123</v>
+        <v>0.25446922174151232</v>
       </c>
       <c r="D3">
-        <v>4.26236028674009</v>
+        <v>4.2623602867400896</v>
       </c>
       <c r="E3">
-        <v>2.471019757124763e-05</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>dlnCO2</t>
-        </is>
+        <v>2.471019757124763E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.07775206436767775</v>
+        <v>7.7752064367677745E-2</v>
       </c>
       <c r="C4">
-        <v>0.03450583291701313</v>
+        <v>3.4505832917013132E-2</v>
       </c>
       <c r="D4">
-        <v>2.25330205923944</v>
+        <v>2.2533020592394402</v>
       </c>
       <c r="E4">
-        <v>0.02472622517391903</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ctfp</t>
-        </is>
+        <v>2.4726225173919029E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0.2811070851838982</v>
+        <v>0.28110708518389821</v>
       </c>
       <c r="C5">
-        <v>0.03627334426346354</v>
+        <v>3.6273344263463542E-2</v>
       </c>
       <c r="D5">
-        <v>7.749687570634184</v>
+        <v>7.7496875706341841</v>
       </c>
       <c r="E5">
-        <v>6.305469134993259e-14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GDP_1</t>
-        </is>
+        <v>6.305469134993259E-14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.2888886375629597</v>
+        <v>-0.28888863756295968</v>
       </c>
       <c r="C6">
-        <v>0.02489886840706268</v>
+        <v>2.489886840706268E-2</v>
       </c>
       <c r="D6">
         <v>-11.60248059630754</v>
       </c>
       <c r="E6">
-        <v>2.251609348825738e-27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Natural_resources_rents</t>
-        </is>
+        <v>2.251609348825738E-27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.00212059227174072</v>
+        <v>-2.1205922717407199E-3</v>
       </c>
       <c r="C7">
-        <v>0.000507543044913947</v>
+        <v>5.0754304491394697E-4</v>
       </c>
       <c r="D7">
-        <v>-4.178152558666748</v>
+        <v>-4.1781525586667483</v>
       </c>
       <c r="E7">
-        <v>3.538619262246861e-05</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>dlnCO2:ctfp</t>
-        </is>
+        <v>3.5386192622468611E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.09674755458623513</v>
+        <v>-9.6747554586235129E-2</v>
       </c>
       <c r="C8">
-        <v>0.05840132097798131</v>
+        <v>5.8401320977981307E-2</v>
       </c>
       <c r="D8">
-        <v>-1.656598737256496</v>
+        <v>-1.6565987372564961</v>
       </c>
       <c r="E8">
-        <v>0.09830549482110344</v>
+        <v>9.8305494821103442E-2</v>
       </c>
     </row>
   </sheetData>
@@ -756,260 +777,226 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>term</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>estimate</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>std.error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>statistic</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>p.value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>(Intercept)</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>0.0666839526887173</v>
+        <v>6.6683952688717296E-2</v>
       </c>
       <c r="C2">
-        <v>0.02520621897258648</v>
+        <v>2.5206218972586479E-2</v>
       </c>
       <c r="D2">
-        <v>2.64553572121391</v>
+        <v>2.6455357212139101</v>
       </c>
       <c r="E2">
-        <v>0.009447182008704801</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Gini</t>
-        </is>
+        <v>9.4471820087048009E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.000604701810054285</v>
+        <v>-6.0470181005428496E-4</v>
       </c>
       <c r="C3">
-        <v>0.0002569522361860687</v>
+        <v>2.5695223618606871E-4</v>
       </c>
       <c r="D3">
-        <v>-2.353362706742111</v>
+        <v>-2.3533627067421108</v>
       </c>
       <c r="E3">
-        <v>0.0205220303799382</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Idh</t>
-        </is>
+        <v>2.0522030379938199E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.1466790978264518</v>
       </c>
       <c r="C4">
-        <v>0.05126181525338992</v>
+        <v>5.1261815253389922E-2</v>
       </c>
       <c r="D4">
-        <v>2.861371512136453</v>
+        <v>2.8613715121364529</v>
       </c>
       <c r="E4">
-        <v>0.005118252549802341</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>pca1_nature</t>
-        </is>
+        <v>5.118252549802341E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>-0.0007504745475904431</v>
+        <v>-7.5047454759044315E-4</v>
       </c>
       <c r="C5">
-        <v>0.0008933742105719198</v>
+        <v>8.9337421057191977E-4</v>
       </c>
       <c r="D5">
-        <v>-0.8400450099292712</v>
+        <v>-0.84004500992927122</v>
       </c>
       <c r="E5">
-        <v>0.4028479012027397</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>dlnCO2</t>
-        </is>
+        <v>0.40284790120273972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.07542583358770769</v>
+        <v>7.5425833587707686E-2</v>
       </c>
       <c r="C6">
         <v>0.1045834360146039</v>
       </c>
       <c r="D6">
-        <v>0.721202481597328</v>
+        <v>0.72120248159732803</v>
       </c>
       <c r="E6">
-        <v>0.4724347902958143</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ctfp</t>
-        </is>
+        <v>0.47243479029581431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.006042392643489758</v>
+        <v>-6.0423926434897577E-3</v>
       </c>
       <c r="C7">
-        <v>0.01174070329035209</v>
+        <v>1.1740703290352089E-2</v>
       </c>
       <c r="D7">
-        <v>-0.5146533809823035</v>
+        <v>-0.51465338098230351</v>
       </c>
       <c r="E7">
-        <v>0.6079086559896583</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GDP_1</t>
-        </is>
+        <v>0.60790865598965826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.01346391367169754</v>
+        <v>-1.3463913671697541E-2</v>
       </c>
       <c r="C8">
-        <v>0.005001787632073307</v>
+        <v>5.0017876320733066E-3</v>
       </c>
       <c r="D8">
         <v>-2.69182033746534</v>
       </c>
       <c r="E8">
-        <v>0.008306976265885082</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Education</t>
-        </is>
+        <v>8.306976265885082E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003628296045870079</v>
+        <v>-3.628296045870079E-3</v>
       </c>
       <c r="C9">
-        <v>0.006245598351695901</v>
+        <v>6.2455983516959013E-3</v>
       </c>
       <c r="D9">
-        <v>-0.5809364998447056</v>
+        <v>-0.58093649984470563</v>
       </c>
       <c r="E9">
-        <v>0.5625646851477131</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Forest_perc</t>
-        </is>
+        <v>0.56256468514771307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-3.197918206401491e-05</v>
+        <v>-3.1979182064014913E-5</v>
       </c>
       <c r="C10">
-        <v>8.657579140055406e-05</v>
+        <v>8.6575791400554062E-5</v>
       </c>
       <c r="D10">
-        <v>-0.3693778774260243</v>
+        <v>-0.36937787742602429</v>
       </c>
       <c r="E10">
-        <v>0.712611804315378</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Natural_resources_rents</t>
-        </is>
+        <v>0.71261180431537796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.001170197170809719</v>
+        <v>-1.170197170809719E-3</v>
       </c>
       <c r="C11">
-        <v>0.0002831418035594516</v>
+        <v>2.8314180355945161E-4</v>
       </c>
       <c r="D11">
-        <v>-4.132901451141641</v>
+        <v>-4.1329014511416409</v>
       </c>
       <c r="E11">
-        <v>7.358181400070202e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>RuleOfLaw</t>
-        </is>
+        <v>7.358181400070202E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.002830877500291637</v>
+        <v>2.830877500291637E-3</v>
       </c>
       <c r="C12">
-        <v>0.003899683359613484</v>
+        <v>3.8996833596134841E-3</v>
       </c>
       <c r="D12">
-        <v>0.7259249634493963</v>
+        <v>0.72592496344939628</v>
       </c>
       <c r="E12">
-        <v>0.4695471801791908</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>dlnCO2:ctfp</t>
-        </is>
+        <v>0.46954718017919078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.2310438712327955</v>
+        <v>0.23104387123279549</v>
       </c>
       <c r="C13">
-        <v>0.1979703818078374</v>
+        <v>0.19797038180783741</v>
       </c>
       <c r="D13">
         <v>1.167062815775449</v>
@@ -1024,212 +1011,539 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>term</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>estimate</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>std.error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>statistic</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>p.value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>(Intercept)</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>0.05426844727618945</v>
+        <v>5.4268447276189451E-2</v>
       </c>
       <c r="C2">
-        <v>0.01873089834002052</v>
+        <v>1.8730898340020521E-2</v>
       </c>
       <c r="D2">
-        <v>2.897268795711695</v>
+        <v>2.8972687957116952</v>
       </c>
       <c r="E2">
-        <v>0.004582147642432016</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Gini</t>
-        </is>
+        <v>4.5821476424320164E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.000661182551731446</v>
+        <v>-6.6118255173144597E-4</v>
       </c>
       <c r="C3">
-        <v>0.000243030676273513</v>
+        <v>2.43030676273513E-4</v>
       </c>
       <c r="D3">
         <v>-2.720572406206589</v>
       </c>
       <c r="E3">
-        <v>0.007629219538593653</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Idh</t>
-        </is>
+        <v>7.6292195385936528E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.1187130510346673</v>
       </c>
       <c r="C4">
-        <v>0.03619593332988776</v>
+        <v>3.6195933329887763E-2</v>
       </c>
       <c r="D4">
-        <v>3.279734492621672</v>
+        <v>3.2797344926216718</v>
       </c>
       <c r="E4">
-        <v>0.001410218945094758</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>dlnCO2</t>
-        </is>
+        <v>1.4102189450947581E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0.09156835545296892</v>
+        <v>9.1568355452968916E-2</v>
       </c>
       <c r="C5">
-        <v>0.09844424319985909</v>
+        <v>9.8444243199859088E-2</v>
       </c>
       <c r="D5">
-        <v>0.9301544963586046</v>
+        <v>0.93015449635860459</v>
       </c>
       <c r="E5">
-        <v>0.3544246857419691</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ctfp</t>
-        </is>
+        <v>0.35442468574196911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.00339506577802537</v>
+        <v>-3.3950657780253699E-3</v>
       </c>
       <c r="C6">
-        <v>0.01101537406930961</v>
+        <v>1.101537406930961E-2</v>
       </c>
       <c r="D6">
-        <v>-0.3082115738115969</v>
+        <v>-0.30821157381159692</v>
       </c>
       <c r="E6">
-        <v>0.758531952611369</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GDP_1</t>
-        </is>
+        <v>0.75853195261136896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.01082059365452787</v>
+        <v>-1.0820593654527869E-2</v>
       </c>
       <c r="C7">
-        <v>0.003866412989861274</v>
+        <v>3.8664129898612742E-3</v>
       </c>
       <c r="D7">
-        <v>-2.79861299941373</v>
+        <v>-2.7986129994137299</v>
       </c>
       <c r="E7">
-        <v>0.006107830672301346</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Natural_resources_rents</t>
-        </is>
+        <v>6.1078306723013464E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001216062267021971</v>
+        <v>-1.2160622670219709E-3</v>
       </c>
       <c r="C8">
-        <v>0.000230271985534572</v>
+        <v>2.3027198553457199E-4</v>
       </c>
       <c r="D8">
-        <v>-5.28098224453533</v>
+        <v>-5.2809822445353296</v>
       </c>
       <c r="E8">
-        <v>6.990339393675979e-07</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>pca1_nature</t>
-        </is>
+        <v>6.9903393936759787E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.0006933697159802931</v>
+        <v>-6.9336971598029306E-4</v>
       </c>
       <c r="C9">
-        <v>0.0008487674685681334</v>
+        <v>8.4876746856813335E-4</v>
       </c>
       <c r="D9">
-        <v>-0.8169136325995204</v>
+        <v>-0.81691363259952043</v>
       </c>
       <c r="E9">
-        <v>0.4158274445534432</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>dlnCO2:ctfp</t>
-        </is>
+        <v>0.41582744455344323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2033035178883288</v>
+        <v>0.20330351788832879</v>
       </c>
       <c r="C10">
-        <v>0.1839427641154295</v>
+        <v>0.18394276411542951</v>
       </c>
       <c r="D10">
-        <v>1.105254228759713</v>
+        <v>1.1052542287597129</v>
       </c>
       <c r="E10">
-        <v>0.271575582040457</v>
+        <v>0.27157558204045701</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B988A3D2-0ABF-4C45-B4A7-DFED1C110CCE}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>-2.4248999999999998E-3</v>
+      </c>
+      <c r="C2">
+        <v>1.6027700000000001E-3</v>
+      </c>
+      <c r="D2">
+        <v>-1.5128999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.13029299999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1.31905849</v>
+      </c>
+      <c r="C3">
+        <v>0.46449033000000001</v>
+      </c>
+      <c r="D3">
+        <v>2.8397999999999999</v>
+      </c>
+      <c r="E3">
+        <v>4.5139999999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>7.1300139999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.2881040000000002E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.6627000000000001</v>
+      </c>
+      <c r="E4">
+        <v>9.6364000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.25281342000000001</v>
+      </c>
+      <c r="C5">
+        <v>5.9754939999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.2308000000000003</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.3280000000000001E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>-0.23728154000000001</v>
+      </c>
+      <c r="C6">
+        <v>7.9712409999999997E-2</v>
+      </c>
+      <c r="D6">
+        <v>-2.9767000000000001</v>
+      </c>
+      <c r="E6">
+        <v>2.9129999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>-4.6288400000000004E-3</v>
+      </c>
+      <c r="C7">
+        <v>9.5964799999999992E-3</v>
+      </c>
+      <c r="D7">
+        <v>-0.48230000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.62955899999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1.2583900000000001E-3</v>
+      </c>
+      <c r="C8">
+        <v>5.1697100000000001E-3</v>
+      </c>
+      <c r="D8">
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.80768300000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>-8.5758000000000004E-4</v>
+      </c>
+      <c r="C9">
+        <v>1.0811499999999999E-3</v>
+      </c>
+      <c r="D9">
+        <v>-0.79320000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.42765500000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>4.8220399999999997E-3</v>
+      </c>
+      <c r="C10">
+        <v>1.7393479999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.2772</v>
+      </c>
+      <c r="E10">
+        <v>0.78160200000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>-5.9017979999999998E-2</v>
+      </c>
+      <c r="C11">
+        <v>6.5702170000000004E-2</v>
+      </c>
+      <c r="D11">
+        <v>-0.89829999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.36904399999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871281F6-0064-4694-8BC5-8EA6CD31DC9D}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>-2.5398E-3</v>
+      </c>
+      <c r="C2">
+        <v>1.5917500000000001E-3</v>
+      </c>
+      <c r="D2">
+        <v>-1.5955999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.1105776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1.2342492300000001</v>
+      </c>
+      <c r="C3">
+        <v>0.35111893999999999</v>
+      </c>
+      <c r="D3">
+        <v>3.5152000000000001</v>
+      </c>
+      <c r="E3">
+        <v>4.394E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>7.066008E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.3835560000000003E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.6119000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.1069761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.25524517000000002</v>
+      </c>
+      <c r="C5">
+        <v>5.841644E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.3693999999999997</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.2459999999999999E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>-0.24574445</v>
+      </c>
+      <c r="C6">
+        <v>7.788059E-2</v>
+      </c>
+      <c r="D6">
+        <v>-3.1554000000000002</v>
+      </c>
+      <c r="E6">
+        <v>1.6027999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>-9.2018000000000004E-4</v>
+      </c>
+      <c r="C7">
+        <v>1.0537000000000001E-3</v>
+      </c>
+      <c r="D7">
+        <v>-0.87329999999999997</v>
+      </c>
+      <c r="E7">
+        <v>0.38250610000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>-5.8377980000000003E-2</v>
+      </c>
+      <c r="C8">
+        <v>6.6448380000000001E-2</v>
+      </c>
+      <c r="D8">
+        <v>-0.87849999999999995</v>
+      </c>
+      <c r="E8">
+        <v>0.37964730000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>